--- a/AfDD_2024_Country_groupings.xlsx
+++ b/AfDD_2024_Country_groupings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE9AA8-8FCA-451E-8A34-66D7C0FF3A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53B9FE-7211-4144-88FB-FDF89D99A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0DC09DAD-E314-4E39-A490-9FC228B1C041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6599F19-4AD3-4B11-A74F-010596C3E995}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{31F17101-A4C8-4EDD-A752-67D358D185F4}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{FF0591A5-FA78-488F-8692-692E8B061290}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
@@ -2498,34 +2498,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BB8ACEB-D0BA-4258-A22C-3448B2AEA4DC}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A98C5124-FD33-4D63-BC13-8E01A3E4B479}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{E739F92F-CBDB-432A-9835-EF84B04E80D5}" name="Country" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B8CA8565-653F-4015-A533-6C4CC8CA0936}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{A03D0625-47C0-4C61-B12E-054D0F2E4C5D}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{FC0701F5-7ADC-4437-844E-C599B0A40DFB}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{CD24B6A4-3548-44F8-90D5-65359690FDFF}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{AB044478-3426-4671-B7E8-DB625A3F666A}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{33B0223F-808D-46A7-8BCE-FA3CC5D0EE0A}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{A43A1AF7-C95C-49C8-8420-03FE84FE7795}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{EF5B60B9-9155-409A-A7AC-2A834DFA0B97}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{FC3BBA97-7F2D-42AC-AB28-27009D6B68C5}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{8A02C161-3F9B-4BE3-AA08-FD1162B68284}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{3702B25C-742E-4A01-AF49-202592A98ADC}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{B722154B-2CBB-4B3F-A9C5-72A330C08D31}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{EA3BD04D-4688-4017-AD82-7019039E8124}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{1EBCD7C0-2C80-4B45-8845-FED024A9D361}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{7A89F268-F70F-4B6C-B542-E74A7E20A56A}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{105421E1-99CC-4059-B7FD-7981755D6BC5}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{9A2B9190-7FBB-4397-A338-C96B93D32804}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{962892E2-D687-4FAA-9B87-5623FE2CCE3C}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="20" xr3:uid="{DDA42194-5B81-4B9B-8752-94482C07BF87}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="21" xr3:uid="{062E3C70-0888-4318-B99B-9902F7422A25}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="22" xr3:uid="{56E44D7E-305B-46E1-9D31-A6421253B4D8}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="23" xr3:uid="{5D664458-366C-44E3-AAAF-0C49A8B283F3}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="24" xr3:uid="{4F3012D3-464A-49B4-8D71-3C513D12D180}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="25" xr3:uid="{1756056C-692D-4620-977D-E4E2C0B66C67}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="26" xr3:uid="{75232320-6882-4071-92B8-E431001AC2F1}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4B8E5757-ACFD-4A71-87ED-672EB49285A5}" name="Country" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{C99765E2-29A8-4237-A28A-E132D288A258}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{BD855E45-B2C5-4915-9B8A-F07E2134D18F}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{650C3B12-6B5D-4B6B-95CD-95020BC0F0D1}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{F32A6466-245A-43F7-85B0-B83C0A01DC45}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{30E4CD6C-5151-4BA4-B0C8-315460EF5E09}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{C219669C-474C-493B-9264-E95D702BC578}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{D280D9F9-2FFB-4B3B-9E84-59D965779244}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{096D0F9A-B4B4-486F-8D15-2DD864FD2BA4}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{6318FED0-799C-4D80-A0CD-73899149AA91}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{D8EB51D3-0B15-4A06-8BC3-9E89E4E6E705}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{46B03911-9131-4E43-B59A-04E5D578F0FF}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{4460A5B3-660F-4BFF-A8BB-10E5997A5283}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{4641619E-952F-442F-8E7F-0218A8B39D63}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{B33AC793-3866-45B1-B821-FDF66D37E900}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{127EFFAB-33DD-407E-A21E-E59D640CD32A}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{1DC30338-6E55-4B5E-816B-26CD01BE2E71}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{5F907451-73A0-46DC-9B15-74459FB79004}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{E3877D20-D63D-4403-ACDD-46BFE977088F}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{511D57FA-29B3-4E22-9207-4651C5345043}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{4CACCD2A-7494-4CF1-8195-AA40D1D7C4FD}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{1A79FA6D-68C1-411C-AEA4-E4B3DBC9CC97}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{FA73DE5A-FAE2-4BD8-AAA2-7DD814EC73F1}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{1CE56525-109E-4B40-9107-9567568535C9}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{F5A12B71-775F-493F-8B72-C766C4556D53}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{5E00E27B-53B3-4F79-91F8-78DC5837BF46}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2827,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FD296-DB20-4FDF-AEF6-47223178C850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF50640-DEF0-46EC-AC77-3F04CA674980}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -19266,8 +19266,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B210" r:id="rId1" xr:uid="{E93B5F4A-4772-442B-939F-8430E0B14657}"/>
-    <hyperlink ref="B212" r:id="rId2" xr:uid="{73890857-0D9C-4E1A-86BD-BBD208D5A759}"/>
+    <hyperlink ref="B210" r:id="rId1" xr:uid="{55E2D651-FDB3-47A9-B126-7F7550C574DC}"/>
+    <hyperlink ref="B212" r:id="rId2" xr:uid="{BCD23A4D-FF89-4A77-8286-0FFBAA0ADF18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2024_Country_groupings.xlsx
+++ b/AfDD_2024_Country_groupings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53B9FE-7211-4144-88FB-FDF89D99A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313761C-64FC-42BC-A2BD-A50A51ECD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6599F19-4AD3-4B11-A74F-010596C3E995}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E07BCC4F-6B8D-4332-A7A6-8CBE8E90DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{FF0591A5-FA78-488F-8692-692E8B061290}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{EDC2FCEE-D7FC-4D92-906E-5102372D50F3}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
@@ -2498,34 +2498,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A98C5124-FD33-4D63-BC13-8E01A3E4B479}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB384C6E-42FF-404D-9615-046EF3341CFC}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{4B8E5757-ACFD-4A71-87ED-672EB49285A5}" name="Country" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C99765E2-29A8-4237-A28A-E132D288A258}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{BD855E45-B2C5-4915-9B8A-F07E2134D18F}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{650C3B12-6B5D-4B6B-95CD-95020BC0F0D1}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{F32A6466-245A-43F7-85B0-B83C0A01DC45}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{30E4CD6C-5151-4BA4-B0C8-315460EF5E09}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{C219669C-474C-493B-9264-E95D702BC578}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{D280D9F9-2FFB-4B3B-9E84-59D965779244}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{096D0F9A-B4B4-486F-8D15-2DD864FD2BA4}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{6318FED0-799C-4D80-A0CD-73899149AA91}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{D8EB51D3-0B15-4A06-8BC3-9E89E4E6E705}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{46B03911-9131-4E43-B59A-04E5D578F0FF}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{4460A5B3-660F-4BFF-A8BB-10E5997A5283}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{4641619E-952F-442F-8E7F-0218A8B39D63}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{B33AC793-3866-45B1-B821-FDF66D37E900}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{127EFFAB-33DD-407E-A21E-E59D640CD32A}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{1DC30338-6E55-4B5E-816B-26CD01BE2E71}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{5F907451-73A0-46DC-9B15-74459FB79004}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{E3877D20-D63D-4403-ACDD-46BFE977088F}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="20" xr3:uid="{511D57FA-29B3-4E22-9207-4651C5345043}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="21" xr3:uid="{4CACCD2A-7494-4CF1-8195-AA40D1D7C4FD}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="22" xr3:uid="{1A79FA6D-68C1-411C-AEA4-E4B3DBC9CC97}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="23" xr3:uid="{FA73DE5A-FAE2-4BD8-AAA2-7DD814EC73F1}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="24" xr3:uid="{1CE56525-109E-4B40-9107-9567568535C9}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="25" xr3:uid="{F5A12B71-775F-493F-8B72-C766C4556D53}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="26" xr3:uid="{5E00E27B-53B3-4F79-91F8-78DC5837BF46}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4E0A3D18-CFAD-49E1-A6CD-DC11A054FAAE}" name="Country" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{92016546-2AA6-4FEB-894A-5C6ED564E97F}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{31B19D52-9F0E-4CD5-832F-2A70A09E34ED}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{2D311039-BC1A-4405-BD37-4B1DDCC5590C}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{A31A7699-D0F6-4EDD-A7C8-BAB57EEE0053}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{2CCE490B-3299-4575-B21E-E7592BF24945}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{946EB559-2C95-485A-9F0A-260EA4A384E8}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{7A95E7DA-30AA-4AB2-B309-67AB32C07B4F}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{2E5D95BB-C5AA-4518-A2DB-E4DB12078F9F}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{961D8F3A-BB0D-4DAD-A01D-E7E25C7EB00E}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{BA4BC7DE-AC79-4217-BC22-57730D2AC83F}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{267A651C-885B-419B-A3EB-A0DA2A9EE40B}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{6B7D88E1-0E8C-458C-BB7F-FB9612ADA2F2}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{AD3837A9-C32F-4A1C-920A-E5B7706C347C}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{C4556205-458B-413A-9DBC-75819E56D0DF}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{AB5FC45A-BDFC-4D88-8ACD-929B474D8AAE}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{AE8F892A-632A-4983-BF3A-28D282278418}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{249F96C8-455B-4E45-A5F0-299D7276433E}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{C502CABA-C453-4917-B284-97661448550E}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{9C04EF73-4BA9-4C9B-89B1-C32A918ABDAA}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{17CFDF7D-3E84-4666-B7D4-1CFCD349BC80}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{D0BA8492-79A0-4390-9BB4-5060E8344F11}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{91B14C3C-1073-4247-A729-C8F2D368D66B}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{2A613802-2188-43FB-B1DF-26DE12455650}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{34F250C5-EA96-479E-A7E9-480BCC0EBA94}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{EDEB02EB-FF20-492D-B8EA-23A2EF1FF70B}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2827,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF50640-DEF0-46EC-AC77-3F04CA674980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9804387D-137A-4194-9E8E-0A02F3FF10D7}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -19266,8 +19266,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B210" r:id="rId1" xr:uid="{55E2D651-FDB3-47A9-B126-7F7550C574DC}"/>
-    <hyperlink ref="B212" r:id="rId2" xr:uid="{BCD23A4D-FF89-4A77-8286-0FFBAA0ADF18}"/>
+    <hyperlink ref="B210" r:id="rId1" xr:uid="{8EF52C01-95FA-4B2C-834B-E12D29C08F19}"/>
+    <hyperlink ref="B212" r:id="rId2" xr:uid="{CA532F57-EBA4-4DF4-9A74-D792AE477C92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2024_Country_groupings.xlsx
+++ b/AfDD_2024_Country_groupings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313761C-64FC-42BC-A2BD-A50A51ECD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1145CBFF-2049-4C42-B1A3-FCB951556F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E07BCC4F-6B8D-4332-A7A6-8CBE8E90DD8D}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{400D70F6-7D86-4C5E-B2B7-88D9522DA626}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{EDC2FCEE-D7FC-4D92-906E-5102372D50F3}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{66DE8609-75D3-48C0-9B24-014CC6148C4D}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
@@ -2498,34 +2498,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB384C6E-42FF-404D-9615-046EF3341CFC}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B8F174-8113-475C-AA87-735BA9417767}" name="Table1" displayName="Table1" ref="B2:AA195" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{4E0A3D18-CFAD-49E1-A6CD-DC11A054FAAE}" name="Country" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{92016546-2AA6-4FEB-894A-5C6ED564E97F}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{31B19D52-9F0E-4CD5-832F-2A70A09E34ED}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{2D311039-BC1A-4405-BD37-4B1DDCC5590C}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{A31A7699-D0F6-4EDD-A7C8-BAB57EEE0053}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{2CCE490B-3299-4575-B21E-E7592BF24945}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{946EB559-2C95-485A-9F0A-260EA4A384E8}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{7A95E7DA-30AA-4AB2-B309-67AB32C07B4F}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{2E5D95BB-C5AA-4518-A2DB-E4DB12078F9F}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{961D8F3A-BB0D-4DAD-A01D-E7E25C7EB00E}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{BA4BC7DE-AC79-4217-BC22-57730D2AC83F}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{267A651C-885B-419B-A3EB-A0DA2A9EE40B}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{6B7D88E1-0E8C-458C-BB7F-FB9612ADA2F2}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{AD3837A9-C32F-4A1C-920A-E5B7706C347C}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{C4556205-458B-413A-9DBC-75819E56D0DF}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{AB5FC45A-BDFC-4D88-8ACD-929B474D8AAE}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{AE8F892A-632A-4983-BF3A-28D282278418}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{249F96C8-455B-4E45-A5F0-299D7276433E}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{C502CABA-C453-4917-B284-97661448550E}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="20" xr3:uid="{9C04EF73-4BA9-4C9B-89B1-C32A918ABDAA}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="21" xr3:uid="{17CFDF7D-3E84-4666-B7D4-1CFCD349BC80}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="22" xr3:uid="{D0BA8492-79A0-4390-9BB4-5060E8344F11}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="23" xr3:uid="{91B14C3C-1073-4247-A729-C8F2D368D66B}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="24" xr3:uid="{2A613802-2188-43FB-B1DF-26DE12455650}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="25" xr3:uid="{34F250C5-EA96-479E-A7E9-480BCC0EBA94}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="26" xr3:uid="{EDEB02EB-FF20-492D-B8EA-23A2EF1FF70B}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{26DFD0A7-B9F0-4743-8C9A-2A769818CA51}" name="Country" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{31F1DC98-7B36-4ABA-A4E0-E0C5C7F18F34}" name="AUC Region (1)" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{AC87D072-43E7-4019-A633-FF9DB7BE2A00}" name="Continent" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{F0752ACD-3342-450F-80BD-D6F2BC6335AD}" name="World Bank income group (2)" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{30E81700-A60E-483C-A8E1-D547A6E8C8FE}" name="AfDD Benchmark (3)" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{16F99B44-53B3-4AE2-85FD-4A90B10FC9B9}" name="Resource-exporting countries (4)" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{5CFD4B21-3493-4DC5-855B-DA1B28F5FC84}" name="Oil-rich countries (5)" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{759F636F-E5BE-495B-8EAB-B254FAD76330}" name="Resource-rich countries (6)" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{2968420B-3011-430D-A6CA-B7B6FCF4FF52}" name="Geographic access (7)" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{A3FE5A23-AACB-4C1E-A7A3-A3DAA8FE6515}" name="Small Island Developing States (SIDS)(8)" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{BA724C86-E5EE-43A9-B1A0-2A0B7F454DFB}" name="Landlocked Developing Countries (LLDC)(8)" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{19A46A99-3E85-42A1-8749-CB5659626C5E}" name="Least Developed Countries (LDC)(8)" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{3B296EC3-8EFE-4F89-960C-91515B5ADB27}" name="Fragility (2022 OECD report)(9)" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{753645E9-B730-4AA8-B938-E343A4E4A775}" name="Common Market for Eastern and Southern Africa (COMESA)(10)" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{0E77E231-B05F-46FF-A7EC-2DCB4DE074BA}" name="Community of Sahel-Saharan States (CEN-SAD)(10)" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{4CD1EC81-F9FF-4CAF-AFCC-79916FA5EF4E}" name="East African Community (EAC)(10)" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{7DE93B2C-8F81-4714-B3DC-35C16B361355}" name="Economic Community of Central African States (ECCAS)(10)" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{4DF620D5-071A-464B-BA55-7DC01E7D0511}" name="Economic Community of West African States (ECOWAS)(10)" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{29563834-869D-41D8-8C4E-03FF807197AC}" name="Intergovernmental Authority on Development (IGAD)(10)" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{91F6FDD2-45CD-4286-8F06-44874A769FCA}" name="Southern African Development Community (SADC)(10)" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{2857A1E7-2C54-4F99-956F-DBA27CD2651A}" name="Arab Maghreb Union (UMA)(10)" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{CF50B3D0-93FD-47A1-9359-3462B2D5B15F}" name="Países Africanos de Língua Oficial Portuguesa (PALOP)(10)" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{F30B2AB2-05C9-4717-91AF-59CC3BC10DB2}" name="Association of Southeast Asian Nations (ASEAN)(10)" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{EAFDBC8D-6A03-4210-ABAE-BCD3D3B7F1CB}" name="Mercado Común del Sur (MERCOSUR)(10)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{8171A3C0-3A9F-4555-A538-1699A092D4C5}" name="European Union (27 members)(10)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{C4B08D78-A64A-4999-A7A7-672BC23668F7}" name="Organisation for Economic Co-operation and Development (OECD)(10)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2827,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9804387D-137A-4194-9E8E-0A02F3FF10D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9F449-9BED-4685-82CB-3D9B0CEF3DDE}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -19266,8 +19266,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B210" r:id="rId1" xr:uid="{8EF52C01-95FA-4B2C-834B-E12D29C08F19}"/>
-    <hyperlink ref="B212" r:id="rId2" xr:uid="{CA532F57-EBA4-4DF4-9A74-D792AE477C92}"/>
+    <hyperlink ref="B210" r:id="rId1" xr:uid="{2BF7B6DD-7EA7-4292-A18A-5878214A508C}"/>
+    <hyperlink ref="B212" r:id="rId2" xr:uid="{54ECE0FE-9A84-452F-9C1B-5D64FFE6177D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
